--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2278.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2278.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.150090603940352</v>
+        <v>1.204170823097229</v>
       </c>
       <c r="B1">
-        <v>2.774121698762451</v>
+        <v>2.522683620452881</v>
       </c>
       <c r="C1">
-        <v>4.599984842521767</v>
+        <v>4.300707817077637</v>
       </c>
       <c r="D1">
-        <v>3.054089845463198</v>
+        <v>2.075307369232178</v>
       </c>
       <c r="E1">
-        <v>1.221139804869083</v>
+        <v>1.175889492034912</v>
       </c>
     </row>
   </sheetData>
